--- a/ONCHO/Entomological survey Survey/Nigeria/2024/taraba/ng_oncho_2410_3_flies_sort_tar.xlsx
+++ b/ONCHO/Entomological survey Survey/Nigeria/2024/taraba/ng_oncho_2410_3_flies_sort_tar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2024\taraba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEEE616D-5482-4D5F-B5BD-C028CAC04FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60867ED6-3C27-46F5-BA30-A28858F7C8CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="236">
   <si>
     <t>type</t>
   </si>
@@ -414,9 +414,6 @@
     <t>IBI</t>
   </si>
   <si>
-    <t>JALINGO/K/LAMIDO</t>
-  </si>
-  <si>
     <t>KARIM LAMIDO</t>
   </si>
   <si>
@@ -474,9 +471,6 @@
     <t>FILINGA</t>
   </si>
   <si>
-    <t>GANGWEREN</t>
-  </si>
-  <si>
     <t>JAURO JALLO</t>
   </si>
   <si>
@@ -558,9 +552,6 @@
     <t>LUMBU</t>
   </si>
   <si>
-    <t>A12</t>
-  </si>
-  <si>
     <t>FIYAYI</t>
   </si>
   <si>
@@ -570,9 +561,6 @@
     <t>DANDIKULU</t>
   </si>
   <si>
-    <t>TAR_ARD_N_001</t>
-  </si>
-  <si>
     <t>TAR_ARD_N_002</t>
   </si>
   <si>
@@ -618,9 +606,6 @@
     <t>TAR_GAL_N_016</t>
   </si>
   <si>
-    <t>TAR_GAL_N_017</t>
-  </si>
-  <si>
     <t>TAR_GAL_N_018</t>
   </si>
   <si>
@@ -639,12 +624,6 @@
     <t>TAR_IBI_N_023</t>
   </si>
   <si>
-    <t>TAR_JAL_N_024</t>
-  </si>
-  <si>
-    <t>TAR_JAL_N_025</t>
-  </si>
-  <si>
     <t>TAR_KAL_N_026</t>
   </si>
   <si>
@@ -657,9 +636,6 @@
     <t>TAR_KUR_N_029</t>
   </si>
   <si>
-    <t>TAR_LAU_N_030</t>
-  </si>
-  <si>
     <t>TAR_LAU_N_031</t>
   </si>
   <si>
@@ -678,15 +654,9 @@
     <t>TAR_TAK_N_036</t>
   </si>
   <si>
-    <t>TAR_TAK_N_037</t>
-  </si>
-  <si>
     <t>TAR_TAK_N_038</t>
   </si>
   <si>
-    <t>TAR_TAK_N_039</t>
-  </si>
-  <si>
     <t>TAR_WUK_N_040</t>
   </si>
   <si>
@@ -724,13 +694,64 @@
   </si>
   <si>
     <t>TAR_SAR_M_052</t>
+  </si>
+  <si>
+    <t>MAIHULA</t>
+  </si>
+  <si>
+    <t>GANGUMI</t>
+  </si>
+  <si>
+    <t>SENDIRDE</t>
+  </si>
+  <si>
+    <t>ANGWAN GALADIMA</t>
+  </si>
+  <si>
+    <t>BAMBUKA</t>
+  </si>
+  <si>
+    <t>BENTE SAMA</t>
+  </si>
+  <si>
+    <t>KABRI</t>
+  </si>
+  <si>
+    <t>MAYO-NDAGA</t>
+  </si>
+  <si>
+    <t>KWESATI</t>
+  </si>
+  <si>
+    <t>BANTAJE</t>
+  </si>
+  <si>
+    <t>TAR_GAL_N_001</t>
+  </si>
+  <si>
+    <t>TAR_GAA_N_017</t>
+  </si>
+  <si>
+    <t>TAR_KAL_N_024</t>
+  </si>
+  <si>
+    <t>TAR_KAL_N_025</t>
+  </si>
+  <si>
+    <t>TAR_KAL_N_030</t>
+  </si>
+  <si>
+    <t>TAR_USS_N_037</t>
+  </si>
+  <si>
+    <t>TAR_USS_N_039</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -782,12 +803,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -827,7 +842,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -865,26 +880,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -945,13 +945,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1955,11 +1948,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F139"/>
+  <dimension ref="A1:F140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19:XFD139"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19:XFD140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2166,233 +2159,227 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
+      <c r="A21" t="s">
         <v>104</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+      <c r="A22" t="s">
         <v>104</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
+      <c r="A23" t="s">
         <v>104</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
+      <c r="A24" t="s">
         <v>104</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
+      <c r="A25" t="s">
         <v>104</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
+      <c r="A26" t="s">
         <v>104</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
+      <c r="A27" t="s">
         <v>104</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
+      <c r="A28" t="s">
         <v>104</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
+      <c r="A29" t="s">
         <v>104</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="23" t="s">
+      <c r="A30" t="s">
         <v>104</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="23" t="s">
+      <c r="A31" t="s">
         <v>104</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
+      <c r="A32" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="23" t="s">
+      <c r="A33" t="s">
         <v>104</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="23" t="s">
+      <c r="A34" t="s">
         <v>104</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="C35" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="1"/>
+      <c r="A36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E36" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>105</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E37" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2400,13 +2387,13 @@
         <v>105</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E38" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -2414,10 +2401,10 @@
         <v>105</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>120</v>
+        <v>219</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>120</v>
+        <v>219</v>
       </c>
       <c r="E39" t="s">
         <v>120</v>
@@ -2428,10 +2415,10 @@
         <v>105</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E40" t="s">
         <v>120</v>
@@ -2442,10 +2429,10 @@
         <v>105</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E41" t="s">
         <v>120</v>
@@ -2456,13 +2443,13 @@
         <v>105</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E42" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -2470,13 +2457,13 @@
         <v>105</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E43" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -2484,10 +2471,10 @@
         <v>105</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E44" t="s">
         <v>121</v>
@@ -2498,10 +2485,10 @@
         <v>105</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E45" t="s">
         <v>121</v>
@@ -2512,13 +2499,13 @@
         <v>105</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E46" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -2526,13 +2513,13 @@
         <v>105</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>143</v>
+        <v>220</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>143</v>
+        <v>220</v>
       </c>
       <c r="E47" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -2540,10 +2527,10 @@
         <v>105</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E48" t="s">
         <v>122</v>
@@ -2554,10 +2541,10 @@
         <v>105</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E49" t="s">
         <v>122</v>
@@ -2568,10 +2555,10 @@
         <v>105</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E50" t="s">
         <v>122</v>
@@ -2582,10 +2569,10 @@
         <v>105</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E51" t="s">
         <v>122</v>
@@ -2596,10 +2583,10 @@
         <v>105</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E52" t="s">
         <v>122</v>
@@ -2610,13 +2597,13 @@
         <v>105</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E53" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2624,10 +2611,10 @@
         <v>105</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="E54" t="s">
         <v>123</v>
@@ -2638,10 +2625,10 @@
         <v>105</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="E55" t="s">
         <v>123</v>
@@ -2652,10 +2639,10 @@
         <v>105</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>123</v>
+        <v>221</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>123</v>
+        <v>221</v>
       </c>
       <c r="E56" t="s">
         <v>123</v>
@@ -2666,10 +2653,10 @@
         <v>105</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>152</v>
+        <v>222</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>152</v>
+        <v>222</v>
       </c>
       <c r="E57" t="s">
         <v>124</v>
@@ -2680,10 +2667,10 @@
         <v>105</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="E58" t="s">
         <v>124</v>
@@ -2694,10 +2681,10 @@
         <v>105</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E59" t="s">
         <v>124</v>
@@ -2708,10 +2695,10 @@
         <v>105</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E60" t="s">
         <v>124</v>
@@ -2722,10 +2709,10 @@
         <v>105</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E61" t="s">
         <v>124</v>
@@ -2736,10 +2723,10 @@
         <v>105</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E62" t="s">
         <v>124</v>
@@ -2750,10 +2737,10 @@
         <v>105</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>157</v>
+        <v>223</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>157</v>
+        <v>223</v>
       </c>
       <c r="E63" t="s">
         <v>125</v>
@@ -2764,10 +2751,10 @@
         <v>105</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E64" t="s">
         <v>125</v>
@@ -2778,13 +2765,13 @@
         <v>105</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E65" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2792,13 +2779,13 @@
         <v>105</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E66" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2806,13 +2793,13 @@
         <v>105</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="E67" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2820,13 +2807,13 @@
         <v>105</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E68" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2834,13 +2821,13 @@
         <v>105</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="E69" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2848,13 +2835,13 @@
         <v>105</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>162</v>
+        <v>224</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>162</v>
+        <v>224</v>
       </c>
       <c r="E70" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2862,13 +2849,13 @@
         <v>105</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E71" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2876,13 +2863,13 @@
         <v>105</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E72" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2890,13 +2877,13 @@
         <v>105</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E73" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2904,13 +2891,13 @@
         <v>105</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E74" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -2918,13 +2905,13 @@
         <v>105</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>167</v>
+        <v>225</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>167</v>
+        <v>225</v>
       </c>
       <c r="E75" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2932,13 +2919,13 @@
         <v>105</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>168</v>
+        <v>226</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>168</v>
+        <v>226</v>
       </c>
       <c r="E76" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -2946,13 +2933,13 @@
         <v>105</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>129</v>
+        <v>165</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>129</v>
+        <v>165</v>
       </c>
       <c r="E77" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2960,13 +2947,13 @@
         <v>105</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E78" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -2974,13 +2961,13 @@
         <v>105</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E79" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -2988,13 +2975,13 @@
         <v>105</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E80" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -3002,10 +2989,10 @@
         <v>105</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E81" t="s">
         <v>130</v>
@@ -3016,13 +3003,13 @@
         <v>105</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>173</v>
+        <v>227</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>173</v>
+        <v>227</v>
       </c>
       <c r="E82" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -3030,13 +3017,13 @@
         <v>105</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E83" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -3044,13 +3031,13 @@
         <v>105</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>175</v>
+        <v>228</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>175</v>
+        <v>228</v>
       </c>
       <c r="E84" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -3058,13 +3045,13 @@
         <v>105</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="E85" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -3072,741 +3059,755 @@
         <v>105</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E86" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>105</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E87" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>72</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F89" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>72</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F90" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>72</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F91" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>72</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E86" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B88" s="1" t="s">
+      <c r="F92" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>72</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C93" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F88" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B89" s="1" t="s">
+      <c r="F93" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>72</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F89" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B90" s="1" t="s">
+      <c r="F94" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>72</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C95" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F90" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B91" s="1" t="s">
+      <c r="F95" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>72</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C96" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="F91" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B92" s="1" t="s">
+      <c r="F96" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>72</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C97" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="F92" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B93" s="1" t="s">
+      <c r="F97" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>72</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C98" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="F93" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B94" s="1" t="s">
+      <c r="F98" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>72</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C99" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F94" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B95" s="1" t="s">
+      <c r="F99" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>72</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C100" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="F95" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B96" s="1" t="s">
+      <c r="F100" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>72</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C101" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F96" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B97" s="1" t="s">
+      <c r="F101" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>72</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F97" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B98" s="1" t="s">
+      <c r="F102" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>72</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F98" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B99" s="1" t="s">
+      <c r="F103" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>72</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C104" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F99" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B100" s="1" t="s">
+      <c r="F104" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>72</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F105" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>72</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C106" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F100" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B101" s="1" t="s">
+      <c r="F106" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>72</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C107" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F101" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B102" s="1" t="s">
+      <c r="F107" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>72</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C108" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F102" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B103" s="1" t="s">
+      <c r="F108" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>72</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C109" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F103" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B104" s="1" t="s">
+      <c r="F109" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>72</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C110" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F104" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B105" s="1" t="s">
+      <c r="F110" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>72</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C111" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="F105" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B106" s="1" t="s">
+      <c r="F111" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>72</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F112" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>72</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F113" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>72</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C114" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F106" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B107" s="1" t="s">
+      <c r="F114" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>72</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C115" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F107" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B108" s="1" t="s">
+      <c r="F115" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>72</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C116" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F108" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B109" s="1" t="s">
+      <c r="F116" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>72</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C117" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F109" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B110" s="1" t="s">
+      <c r="F117" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>72</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F118" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>72</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C119" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="F110" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B111" s="1" t="s">
+      <c r="F119" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>72</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C120" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F111" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B112" s="1" t="s">
+      <c r="F120" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>72</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C121" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F112" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B113" s="1" t="s">
+      <c r="F121" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>72</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C122" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="F113" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B114" s="1" t="s">
+      <c r="F122" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>72</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C123" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F114" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B115" s="1" t="s">
+      <c r="F123" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>72</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C124" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F115" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B116" s="1" t="s">
+      <c r="F124" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>72</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F125" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>72</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C126" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F116" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B117" s="1" t="s">
+      <c r="F126" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>72</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F127" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>72</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C128" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F117" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B118" s="1" t="s">
+      <c r="F128" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>72</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C129" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F118" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B119" s="1" t="s">
+      <c r="F129" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>72</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C130" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="F119" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F120" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="F121" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="F122" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="F123" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F124" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F125" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F126" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F127" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="F128" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="F129" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="F130" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="23" t="s">
+      <c r="A131" t="s">
         <v>72</v>
       </c>
       <c r="B131" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F131" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>72</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F132" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>72</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F133" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>72</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F134" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>72</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F135" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>72</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F136" t="s">
         <v>220</v>
       </c>
-      <c r="C131" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="F131" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B132" s="1" t="s">
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>72</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F137" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>72</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F138" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>72</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F139" t="s">
         <v>221</v>
       </c>
-      <c r="C132" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="F132" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F133" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="F134" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F135" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B136" s="1" t="s">
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>72</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F140" t="s">
         <v>225</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F136" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="F137" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="F138" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="F139" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>
